--- a/design/database design specification.xlsx
+++ b/design/database design specification.xlsx
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/design/database design specification.xlsx
+++ b/design/database design specification.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="126">
   <si>
     <t>NAME</t>
   </si>
@@ -387,6 +387,37 @@
   </si>
   <si>
     <t>Primary Key. Parameter name.</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>true- default account; false- not default account;</t>
+  </si>
+  <si>
+    <t>bankid</t>
+  </si>
+  <si>
+    <t>int unsigned</t>
+  </si>
+  <si>
+    <t>T_Bank</t>
+  </si>
+  <si>
+    <t>Primary Key. Bank ID.</t>
+  </si>
+  <si>
+    <t>paypal user password</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>paypal user name</t>
+  </si>
+  <si>
+    <t>user status:
+0-active; 1- pending; 2-</t>
   </si>
 </sst>
 </file>
@@ -874,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H183"/>
+  <dimension ref="B2:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1179,13 +1210,19 @@
       <c r="G24" s="10"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="2:8">
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
+    <row r="25" spans="2:8" ht="30">
+      <c r="C25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1">
       <c r="C26" s="13"/>
@@ -2585,8 +2622,12 @@
       <c r="H159" s="8"/>
     </row>
     <row r="160" spans="2:8">
-      <c r="C160" s="3"/>
-      <c r="D160" s="4"/>
+      <c r="C160" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="E160" s="5"/>
       <c r="F160" s="6"/>
       <c r="G160" s="5"/>
@@ -2631,204 +2672,338 @@
       </c>
     </row>
     <row r="164" spans="2:8">
-      <c r="C164" s="3"/>
-      <c r="D164" s="4"/>
+      <c r="C164" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="E164" s="5"/>
       <c r="F164" s="6"/>
       <c r="G164" s="5"/>
-      <c r="H164" s="4"/>
-    </row>
-    <row r="165" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C165" s="13"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="12"/>
-    </row>
-    <row r="166" spans="2:8">
-      <c r="C166" s="16"/>
-      <c r="D166" s="24"/>
-      <c r="E166" s="25"/>
-      <c r="F166" s="25"/>
-      <c r="G166" s="25"/>
-      <c r="H166" s="24"/>
-    </row>
-    <row r="168" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B168" s="21">
+      <c r="H164" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="C165" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" s="9"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" ht="30">
+      <c r="C166" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E166" s="5"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C167" s="13"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="12"/>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="C168" s="16"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="25"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="24"/>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="C169" s="16"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="25"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="25"/>
+      <c r="H169" s="24"/>
+    </row>
+    <row r="170" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B170" s="21">
+        <v>11</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8">
+      <c r="C172" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="18"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H172" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8">
+      <c r="C173" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D173" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C168" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C169" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8">
-      <c r="C170" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D170" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E170" s="18"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H170" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8">
-      <c r="C171" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E171" s="5"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="4"/>
-    </row>
-    <row r="172" spans="2:8">
-      <c r="C172" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E172" s="9"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
-      <c r="H172" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8">
-      <c r="C173" s="3"/>
-      <c r="D173" s="4"/>
       <c r="E173" s="5"/>
       <c r="F173" s="6"/>
       <c r="G173" s="5"/>
       <c r="H173" s="4"/>
     </row>
-    <row r="174" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C174" s="13"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="12"/>
-    </row>
-    <row r="177" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B177" s="21">
-        <v>14</v>
-      </c>
-      <c r="C177" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C178" s="1" t="s">
+    <row r="174" spans="2:8">
+      <c r="C174" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E174" s="9"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="8"/>
+    </row>
+    <row r="175" spans="2:8">
+      <c r="C175" s="3"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="4"/>
+    </row>
+    <row r="176" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C176" s="13"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="12"/>
+    </row>
+    <row r="177" spans="2:8">
+      <c r="C177" s="16"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="25"/>
+      <c r="G177" s="25"/>
+      <c r="H177" s="24"/>
+    </row>
+    <row r="179" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B179" s="21">
+        <v>13</v>
+      </c>
+      <c r="C179" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C180" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E180" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F178" s="2" t="s">
+      <c r="F180" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G178" s="2" t="s">
+      <c r="G180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H178" s="1" t="s">
+      <c r="H180" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="2:8">
-      <c r="C179" s="17" t="s">
+    <row r="181" spans="2:8">
+      <c r="C181" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D179" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E179" s="18"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="18" t="s">
+      <c r="D181" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="18"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H179" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8">
-      <c r="C180" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E180" s="5"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8">
-      <c r="C181" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E181" s="9"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
-      <c r="H181" s="8"/>
+      <c r="H181" s="16" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="182" spans="2:8">
       <c r="C182" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6"/>
       <c r="G182" s="5"/>
       <c r="H182" s="4"/>
     </row>
-    <row r="183" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C183" s="13"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="12"/>
+    <row r="183" spans="2:8">
+      <c r="C183" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E183" s="9"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+      <c r="H183" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8">
+      <c r="C184" s="3"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="4"/>
+    </row>
+    <row r="185" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C185" s="13"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="14"/>
+      <c r="H185" s="12"/>
+    </row>
+    <row r="188" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B188" s="21">
+        <v>14</v>
+      </c>
+      <c r="C188" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C189" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8">
+      <c r="C190" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190" s="18"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H190" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8">
+      <c r="C191" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" s="5"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8">
+      <c r="C192" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E192" s="9"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="8"/>
+    </row>
+    <row r="193" spans="3:8">
+      <c r="C193" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="4"/>
+    </row>
+    <row r="194" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C194" s="13"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="14"/>
+      <c r="H194" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/database design specification.xlsx
+++ b/design/database design specification.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="128">
   <si>
     <t>NAME</t>
   </si>
@@ -418,6 +418,12 @@
   <si>
     <t>user status:
 0-active; 1- pending; 2-</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Male; Female</t>
   </si>
 </sst>
 </file>
@@ -907,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1225,12 +1231,18 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="12" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="27" spans="2:8">
       <c r="C27" s="15" t="s">

--- a/design/database design specification.xlsx
+++ b/design/database design specification.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="130">
   <si>
     <t>NAME</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>Male; Female</t>
+  </si>
+  <si>
+    <t>min_bv</t>
+  </si>
+  <si>
+    <t>minimum BV</t>
   </si>
 </sst>
 </file>
@@ -913,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1321,43 +1327,49 @@
     </row>
     <row r="34" spans="2:8">
       <c r="C34" s="3" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E34" s="5"/>
       <c r="F34" s="6"/>
       <c r="G34" s="5"/>
       <c r="H34" s="4" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="C35" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="9" t="b">
+        <v>6</v>
+      </c>
+      <c r="E35" s="9">
         <v>0</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="11"/>
+      <c r="C36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="11" t="b">
+        <v>0</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1">
       <c r="C37" s="13"/>

--- a/design/database design specification.xlsx
+++ b/design/database design specification.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2820" yWindow="1140" windowWidth="22020" windowHeight="13960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="129">
   <si>
     <t>NAME</t>
   </si>
@@ -425,12 +430,15 @@
   <si>
     <t>Male; Female</t>
   </si>
+  <si>
+    <t>?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -615,6 +623,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -910,25 +924,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="20"/>
+    <col min="2" max="2" width="8.83203125" style="20"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1">
+    <row r="2" spans="2:8" ht="15" thickBot="1">
       <c r="B2" s="21">
         <v>1</v>
       </c>
@@ -936,7 +950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1">
+    <row r="3" spans="2:8" ht="15" thickBot="1">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +1001,7 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="26" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1145,7 +1159,7 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1193,7 +1207,7 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1216,7 +1230,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="2:8" ht="30">
+    <row r="25" spans="2:8" ht="28">
       <c r="C25" s="3" t="s">
         <v>84</v>
       </c>
@@ -1230,7 +1244,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="15.75" thickBot="1">
+    <row r="26" spans="2:8" ht="15" thickBot="1">
       <c r="C26" s="13" t="s">
         <v>126</v>
       </c>
@@ -1249,7 +1263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1">
+    <row r="29" spans="2:8" ht="15" thickBot="1">
       <c r="B29" s="21">
         <v>2</v>
       </c>
@@ -1257,7 +1271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="15.75" thickBot="1">
+    <row r="30" spans="2:8" ht="15" thickBot="1">
       <c r="C30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1308,10 @@
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -1359,7 +1376,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8" ht="15.75" thickBot="1">
+    <row r="37" spans="2:8" ht="15" thickBot="1">
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
       <c r="E37" s="14"/>
@@ -1367,7 +1384,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="40" spans="2:8" ht="15.75" thickBot="1">
+    <row r="40" spans="2:8" ht="15" thickBot="1">
       <c r="B40" s="21">
         <v>3</v>
       </c>
@@ -1375,7 +1392,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="15.75" thickBot="1">
+    <row r="41" spans="2:8" ht="15" thickBot="1">
       <c r="C41" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1455,7 @@
       <c r="H44" s="8"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="23" t="s">
         <v>54</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -1486,7 +1503,7 @@
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -1497,7 +1514,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" ht="15.75" thickBot="1">
+    <row r="50" spans="2:8" ht="15" thickBot="1">
       <c r="C50" s="13"/>
       <c r="D50" s="12"/>
       <c r="E50" s="14"/>
@@ -1505,7 +1522,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="53" spans="2:8" ht="15.75" thickBot="1">
+    <row r="53" spans="2:8" ht="15" thickBot="1">
       <c r="B53" s="21">
         <v>4</v>
       </c>
@@ -1513,7 +1530,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="15.75" thickBot="1">
+    <row r="54" spans="2:8" ht="15" thickBot="1">
       <c r="C54" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1569,7 @@
       </c>
     </row>
     <row r="56" spans="2:8">
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -1583,7 +1600,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="2:8" ht="15.75" thickBot="1">
+    <row r="59" spans="2:8" ht="15" thickBot="1">
       <c r="C59" s="13"/>
       <c r="D59" s="12"/>
       <c r="E59" s="14"/>
@@ -1591,7 +1608,7 @@
       <c r="G59" s="14"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="62" spans="2:8" ht="15.75" thickBot="1">
+    <row r="62" spans="2:8" ht="15" thickBot="1">
       <c r="B62" s="21">
         <v>5</v>
       </c>
@@ -1599,7 +1616,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="15.75" thickBot="1">
+    <row r="63" spans="2:8" ht="15" thickBot="1">
       <c r="C63" s="1" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1682,7 @@
       <c r="G67" s="11"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="2:8" ht="15.75" thickBot="1">
+    <row r="68" spans="2:8" ht="15" thickBot="1">
       <c r="C68" s="13"/>
       <c r="D68" s="12"/>
       <c r="E68" s="14"/>
@@ -1673,7 +1690,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="12"/>
     </row>
-    <row r="71" spans="2:8" ht="15.75" thickBot="1">
+    <row r="71" spans="2:8" ht="15" thickBot="1">
       <c r="B71" s="21">
         <v>6</v>
       </c>
@@ -1681,7 +1698,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="15.75" thickBot="1">
+    <row r="72" spans="2:8" ht="15" thickBot="1">
       <c r="C72" s="1" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1735,7 @@
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="23" t="s">
         <v>58</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -1744,7 +1761,7 @@
       <c r="H75" s="8"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D76" s="4" t="s">
@@ -1775,7 +1792,7 @@
       <c r="G78" s="11"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="2:8" ht="15.75" thickBot="1">
+    <row r="79" spans="2:8" ht="15" thickBot="1">
       <c r="C79" s="13"/>
       <c r="D79" s="12"/>
       <c r="E79" s="14"/>
@@ -1783,7 +1800,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="82" spans="2:8" ht="15.75" thickBot="1">
+    <row r="82" spans="2:8" ht="15" thickBot="1">
       <c r="B82" s="21">
         <v>7</v>
       </c>
@@ -1791,7 +1808,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="15.75" thickBot="1">
+    <row r="83" spans="2:8" ht="15" thickBot="1">
       <c r="C83" s="1" t="s">
         <v>0</v>
       </c>
@@ -1842,7 +1859,7 @@
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="26" t="s">
         <v>58</v>
       </c>
       <c r="D86" s="8" t="s">
@@ -1856,7 +1873,7 @@
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -1868,7 +1885,7 @@
       <c r="H87" s="4"/>
     </row>
     <row r="88" spans="2:8">
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="26" t="s">
         <v>99</v>
       </c>
       <c r="D88" s="8" t="s">
@@ -1893,15 +1910,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C90" s="13"/>
+    <row r="90" spans="2:8" ht="15" thickBot="1">
+      <c r="C90" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="D90" s="12"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="93" spans="2:8" ht="15.75" thickBot="1">
+    <row r="93" spans="2:8" ht="15" thickBot="1">
       <c r="B93" s="21">
         <v>8</v>
       </c>
@@ -1909,7 +1928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="15.75" thickBot="1">
+    <row r="94" spans="2:8" ht="15" thickBot="1">
       <c r="C94" s="1" t="s">
         <v>0</v>
       </c>
@@ -1972,7 +1991,7 @@
       <c r="H97" s="8"/>
     </row>
     <row r="98" spans="2:8">
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -2016,7 +2035,7 @@
       <c r="H101" s="8"/>
     </row>
     <row r="102" spans="2:8">
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="23" t="s">
         <v>54</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -2099,7 +2118,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="2:8" ht="15.75" thickBot="1">
+    <row r="109" spans="2:8" ht="15" thickBot="1">
       <c r="C109" s="13"/>
       <c r="D109" s="12"/>
       <c r="E109" s="14"/>
@@ -2107,7 +2126,7 @@
       <c r="G109" s="14"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="112" spans="2:8" ht="15.75" thickBot="1">
+    <row r="112" spans="2:8" ht="15" thickBot="1">
       <c r="B112" s="21">
         <v>9</v>
       </c>
@@ -2115,7 +2134,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="15.75" thickBot="1">
+    <row r="113" spans="2:8" ht="15" thickBot="1">
       <c r="C113" s="1" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +2197,7 @@
       <c r="H116" s="8"/>
     </row>
     <row r="117" spans="2:8">
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="23" t="s">
         <v>58</v>
       </c>
       <c r="D117" s="4" t="s">
@@ -2249,7 +2268,7 @@
       <c r="G122" s="10"/>
       <c r="H122" s="8"/>
     </row>
-    <row r="123" spans="2:8" ht="15.75" thickBot="1">
+    <row r="123" spans="2:8" ht="15" thickBot="1">
       <c r="C123" s="13"/>
       <c r="D123" s="12"/>
       <c r="E123" s="14"/>
@@ -2257,7 +2276,7 @@
       <c r="G123" s="14"/>
       <c r="H123" s="12"/>
     </row>
-    <row r="126" spans="2:8" ht="15.75" thickBot="1">
+    <row r="126" spans="2:8" ht="15" thickBot="1">
       <c r="B126" s="21">
         <v>10</v>
       </c>
@@ -2265,7 +2284,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="2:8" ht="15.75" thickBot="1">
+    <row r="127" spans="2:8" ht="15" thickBot="1">
       <c r="C127" s="1" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +2321,7 @@
       </c>
     </row>
     <row r="129" spans="2:8">
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="23" t="s">
         <v>58</v>
       </c>
       <c r="D129" s="4" t="s">
@@ -2376,7 +2395,7 @@
       <c r="H134" s="8"/>
     </row>
     <row r="135" spans="2:8">
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D135" s="4" t="s">
@@ -2423,7 +2442,7 @@
       <c r="G138" s="10"/>
       <c r="H138" s="8"/>
     </row>
-    <row r="139" spans="2:8" ht="15.75" thickBot="1">
+    <row r="139" spans="2:8" ht="15" thickBot="1">
       <c r="C139" s="13"/>
       <c r="D139" s="12"/>
       <c r="E139" s="14"/>
@@ -2431,7 +2450,7 @@
       <c r="G139" s="14"/>
       <c r="H139" s="12"/>
     </row>
-    <row r="142" spans="2:8" ht="15.75" thickBot="1">
+    <row r="142" spans="2:8" ht="15" thickBot="1">
       <c r="B142" s="21">
         <v>11</v>
       </c>
@@ -2439,7 +2458,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="15.75" thickBot="1">
+    <row r="143" spans="2:8" ht="15" thickBot="1">
       <c r="C143" s="1" t="s">
         <v>0</v>
       </c>
@@ -2531,7 +2550,7 @@
       <c r="G149" s="5"/>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="2:8" ht="15.75" thickBot="1">
+    <row r="150" spans="2:8" ht="15" thickBot="1">
       <c r="C150" s="13"/>
       <c r="D150" s="12"/>
       <c r="E150" s="14"/>
@@ -2539,7 +2558,7 @@
       <c r="G150" s="14"/>
       <c r="H150" s="12"/>
     </row>
-    <row r="153" spans="2:8" ht="15.75" thickBot="1">
+    <row r="153" spans="2:8" ht="15" thickBot="1">
       <c r="B153" s="21">
         <v>12</v>
       </c>
@@ -2547,7 +2566,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="154" spans="2:8" ht="15.75" thickBot="1">
+    <row r="154" spans="2:8" ht="15" thickBot="1">
       <c r="C154" s="1" t="s">
         <v>0</v>
       </c>
@@ -2595,7 +2614,7 @@
       <c r="G156" s="5"/>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="2:8" ht="30">
+    <row r="157" spans="2:8" ht="28">
       <c r="C157" s="7" t="s">
         <v>100</v>
       </c>
@@ -2634,7 +2653,7 @@
       <c r="H159" s="8"/>
     </row>
     <row r="160" spans="2:8">
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="23" t="s">
         <v>118</v>
       </c>
       <c r="D160" s="4" t="s">
@@ -2711,7 +2730,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="166" spans="2:8" ht="30">
+    <row r="166" spans="2:8" ht="28">
       <c r="C166" s="3" t="s">
         <v>116</v>
       </c>
@@ -2725,7 +2744,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="167" spans="2:8" ht="15.75" thickBot="1">
+    <row r="167" spans="2:8" ht="15" thickBot="1">
       <c r="C167" s="13"/>
       <c r="D167" s="12"/>
       <c r="E167" s="14"/>
@@ -2749,7 +2768,7 @@
       <c r="G169" s="25"/>
       <c r="H169" s="24"/>
     </row>
-    <row r="170" spans="2:8" ht="15.75" thickBot="1">
+    <row r="170" spans="2:8" ht="15" thickBot="1">
       <c r="B170" s="21">
         <v>11</v>
       </c>
@@ -2757,7 +2776,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="171" spans="2:8" ht="15.75" thickBot="1">
+    <row r="171" spans="2:8" ht="15" thickBot="1">
       <c r="C171" s="1" t="s">
         <v>0</v>
       </c>
@@ -2825,7 +2844,7 @@
       <c r="G175" s="5"/>
       <c r="H175" s="4"/>
     </row>
-    <row r="176" spans="2:8" ht="15.75" thickBot="1">
+    <row r="176" spans="2:8" ht="15" thickBot="1">
       <c r="C176" s="13"/>
       <c r="D176" s="12"/>
       <c r="E176" s="14"/>
@@ -2841,7 +2860,7 @@
       <c r="G177" s="25"/>
       <c r="H177" s="24"/>
     </row>
-    <row r="179" spans="2:8" ht="15.75" thickBot="1">
+    <row r="179" spans="2:8" ht="15" thickBot="1">
       <c r="B179" s="21">
         <v>13</v>
       </c>
@@ -2849,7 +2868,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="180" spans="2:8" ht="15.75" thickBot="1">
+    <row r="180" spans="2:8" ht="15" thickBot="1">
       <c r="C180" s="1" t="s">
         <v>0</v>
       </c>
@@ -2919,7 +2938,7 @@
       <c r="G184" s="5"/>
       <c r="H184" s="4"/>
     </row>
-    <row r="185" spans="2:8" ht="15.75" thickBot="1">
+    <row r="185" spans="2:8" ht="15" thickBot="1">
       <c r="C185" s="13"/>
       <c r="D185" s="12"/>
       <c r="E185" s="14"/>
@@ -2927,7 +2946,7 @@
       <c r="G185" s="14"/>
       <c r="H185" s="12"/>
     </row>
-    <row r="188" spans="2:8" ht="15.75" thickBot="1">
+    <row r="188" spans="2:8" ht="15" thickBot="1">
       <c r="B188" s="21">
         <v>14</v>
       </c>
@@ -2935,7 +2954,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="189" spans="2:8" ht="15.75" thickBot="1">
+    <row r="189" spans="2:8" ht="15" thickBot="1">
       <c r="C189" s="1" t="s">
         <v>0</v>
       </c>
@@ -3009,7 +3028,7 @@
       <c r="G193" s="5"/>
       <c r="H193" s="4"/>
     </row>
-    <row r="194" spans="3:8" ht="15.75" thickBot="1">
+    <row r="194" spans="3:8" ht="15" thickBot="1">
       <c r="C194" s="13"/>
       <c r="D194" s="12"/>
       <c r="E194" s="14"/>
@@ -3019,30 +3038,45 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/design/database design specification.xlsx
+++ b/design/database design specification.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="144">
   <si>
     <t>NAME</t>
   </si>
@@ -454,6 +454,24 @@
   </si>
   <si>
     <t>account type name</t>
+  </si>
+  <si>
+    <t>wholesaleprice</t>
+  </si>
+  <si>
+    <t>retailprice</t>
+  </si>
+  <si>
+    <t>capsulenumber</t>
+  </si>
+  <si>
+    <t>numbers of capsules</t>
+  </si>
+  <si>
+    <t>name of product</t>
+  </si>
+  <si>
+    <t>publish date</t>
   </si>
 </sst>
 </file>
@@ -944,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H197"/>
+  <dimension ref="B2:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1532,34 +1550,38 @@
     </row>
     <row r="46" spans="2:8">
       <c r="C46" s="7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="8"/>
+      <c r="H46" s="8" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="47" spans="2:8">
       <c r="C47" s="3" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="4"/>
+      <c r="H47" s="4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="48" spans="2:8">
       <c r="C48" s="7" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="10"/>
@@ -1568,563 +1590,569 @@
     </row>
     <row r="49" spans="2:8">
       <c r="C49" s="3" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="2:8">
       <c r="C50" s="7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E50" s="9"/>
-      <c r="F50" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="8"/>
+      <c r="H50" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="51" spans="2:8">
       <c r="C51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="C52" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="C53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="C54" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="C55" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C52" s="13"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="55" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B55" s="21">
+      <c r="D55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C56" s="13"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="59" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B59" s="21">
         <v>4</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C59" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C56" s="1" t="s">
+    <row r="60" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
-      <c r="C57" s="17" t="s">
+    <row r="61" spans="2:8">
+      <c r="C61" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="18" t="s">
+      <c r="D61" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H61" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
-      <c r="C58" s="3" t="s">
+    <row r="62" spans="2:8">
+      <c r="C62" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="C59" s="7" t="s">
+      <c r="D62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="C63" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="10" t="s">
+      <c r="E63" s="9"/>
+      <c r="F63" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="C60" s="3"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C61" s="13"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="64" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B64" s="21">
+      <c r="G63" s="10"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C65" s="13"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="68" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B68" s="21">
         <v>5</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C68" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C65" s="1" t="s">
+    <row r="69" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
-      <c r="C66" s="17" t="s">
+    <row r="70" spans="2:8">
+      <c r="C70" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="18"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="18" t="s">
+      <c r="D70" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="18"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="H70" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
-      <c r="C67" s="3" t="s">
+    <row r="71" spans="2:8">
+      <c r="C71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="C68" s="7"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="8"/>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="C69" s="3"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C70" s="13"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="12"/>
-    </row>
-    <row r="73" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B73" s="21">
+      <c r="E71" s="5"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C74" s="13"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="77" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B77" s="21">
         <v>6</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C77" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C74" s="1" t="s">
+    <row r="78" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
-      <c r="C75" s="17" t="s">
+    <row r="79" spans="2:8">
+      <c r="C79" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="18"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="18" t="s">
+      <c r="D79" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="18"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="H79" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
-      <c r="C76" s="3" t="s">
+    <row r="80" spans="2:8">
+      <c r="C80" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="4" t="s">
+      <c r="E80" s="5"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
-      <c r="C77" s="7" t="s">
+    <row r="81" spans="2:8">
+      <c r="C81" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="8"/>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="C78" s="3" t="s">
+      <c r="E81" s="9"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="C82" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="C79" s="7" t="s">
+      <c r="D82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="C83" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D83" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="8"/>
-    </row>
-    <row r="80" spans="2:8">
-      <c r="C80" s="3"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C81" s="13"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="12"/>
-    </row>
-    <row r="84" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B84" s="21">
+      <c r="E83" s="9"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C85" s="13"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="12"/>
+    </row>
+    <row r="88" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B88" s="21">
         <v>7</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C88" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C85" s="1" t="s">
+    <row r="89" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
-      <c r="C86" s="17" t="s">
+    <row r="90" spans="2:8">
+      <c r="C90" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="18" t="s">
+      <c r="D90" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="18"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H86" s="16" t="s">
+      <c r="H90" s="16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="87" spans="2:8">
-      <c r="C87" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
-      <c r="C88" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
-      <c r="C89" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="2:8">
-      <c r="C90" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="8"/>
     </row>
     <row r="91" spans="2:8">
       <c r="C91" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="C92" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E92" s="9"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="C93" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="C94" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="C95" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="4" t="s">
+      <c r="D95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C92" s="13"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="12"/>
-    </row>
-    <row r="95" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B95" s="21">
+    <row r="96" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C96" s="13"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="12"/>
+    </row>
+    <row r="99" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B99" s="21">
         <v>8</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C99" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C96" s="1" t="s">
+    <row r="100" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="3:8">
-      <c r="C97" s="17" t="s">
+    <row r="101" spans="2:8">
+      <c r="C101" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D97" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" s="18"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="16" t="s">
+      <c r="D101" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" s="18"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="98" spans="3:8">
-      <c r="C98" s="3" t="s">
+    <row r="102" spans="2:8">
+      <c r="C102" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="99" spans="3:8">
-      <c r="C99" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="8"/>
-    </row>
-    <row r="100" spans="3:8">
-      <c r="C100" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="4"/>
-    </row>
-    <row r="101" spans="3:8">
-      <c r="C101" s="7"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="8"/>
-    </row>
-    <row r="102" spans="3:8">
-      <c r="C102" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="D102" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="6"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="3:8">
+      <c r="G102" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
       <c r="C103" s="7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="8"/>
     </row>
-    <row r="104" spans="3:8">
+    <row r="104" spans="2:8">
       <c r="C104" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>19</v>
@@ -2134,218 +2162,212 @@
       <c r="G104" s="5"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="3:8">
-      <c r="C105" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>46</v>
-      </c>
+    <row r="105" spans="2:8">
+      <c r="C105" s="7"/>
+      <c r="D105" s="8"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" spans="3:8">
+    <row r="106" spans="2:8">
       <c r="C106" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E106" s="11"/>
-      <c r="F106" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G106" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="5"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="3:8">
+    <row r="107" spans="2:8">
       <c r="C107" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E107" s="9"/>
-      <c r="F107" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="8"/>
     </row>
-    <row r="108" spans="3:8">
+    <row r="108" spans="2:8">
       <c r="C108" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="C109" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="3:8">
-      <c r="C109" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="E109" s="9"/>
-      <c r="F109" s="10"/>
+      <c r="F109" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="G109" s="10"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" spans="3:8">
+    <row r="110" spans="2:8">
       <c r="C110" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
+      <c r="F110" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="G110" s="11"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C111" s="13"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="12"/>
-    </row>
-    <row r="114" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B114" s="21">
+    <row r="111" spans="2:8">
+      <c r="C111" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G111" s="10"/>
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="C112" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="C113" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="8"/>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="C114" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C115" s="13"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="12"/>
+    </row>
+    <row r="118" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B118" s="21">
         <v>9</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C118" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C115" s="1" t="s">
+    <row r="119" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C119" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="2:8">
-      <c r="C116" s="17" t="s">
+    <row r="120" spans="2:8">
+      <c r="C120" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D116" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E116" s="18"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="18" t="s">
+      <c r="D120" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="18"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H116" s="16" t="s">
+      <c r="H120" s="16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="117" spans="2:8">
-      <c r="C117" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E117" s="5"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8">
-      <c r="C118" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E118" s="9"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="8"/>
-    </row>
-    <row r="119" spans="2:8">
-      <c r="C119" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="2:8">
-      <c r="C120" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="8"/>
     </row>
     <row r="121" spans="2:8">
       <c r="C121" s="3" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="122" spans="2:8">
       <c r="C122" s="7" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="E122" s="9"/>
-      <c r="F122" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="F122" s="10"/>
       <c r="G122" s="10"/>
       <c r="H122" s="8"/>
     </row>
     <row r="123" spans="2:8">
       <c r="C123" s="3" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
@@ -2354,7 +2376,7 @@
     </row>
     <row r="124" spans="2:8">
       <c r="C124" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>19</v>
@@ -2364,450 +2386,446 @@
       <c r="G124" s="10"/>
       <c r="H124" s="8"/>
     </row>
-    <row r="125" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C125" s="13"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="12"/>
-    </row>
-    <row r="128" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B128" s="21">
+    <row r="125" spans="2:8">
+      <c r="C125" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="C126" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" s="9"/>
+      <c r="F126" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G126" s="10"/>
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="C127" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="5"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="C128" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" s="9"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="8"/>
+    </row>
+    <row r="129" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C129" s="13"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="12"/>
+    </row>
+    <row r="132" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B132" s="21">
         <v>10</v>
       </c>
-      <c r="C128" s="22" t="s">
+      <c r="C132" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C129" s="1" t="s">
+    <row r="133" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="G133" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="H133" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="3:8">
-      <c r="C130" s="17" t="s">
+    <row r="134" spans="2:8">
+      <c r="C134" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D130" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E130" s="18"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="18" t="s">
+      <c r="D134" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="18"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H130" s="16" t="s">
+      <c r="H134" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="131" spans="3:8">
-      <c r="C131" s="3" t="s">
+    <row r="135" spans="2:8">
+      <c r="C135" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D135" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E131" s="5"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="4" t="s">
+      <c r="E135" s="5"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="3:8">
-      <c r="C132" s="7" t="s">
+    <row r="136" spans="2:8">
+      <c r="C136" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D136" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E132" s="9"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="8"/>
-    </row>
-    <row r="133" spans="3:8">
-      <c r="C133" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E133" s="5"/>
-      <c r="F133" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G133" s="5"/>
-      <c r="H133" s="4"/>
-    </row>
-    <row r="134" spans="3:8">
-      <c r="C134" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E134" s="9"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="8"/>
-    </row>
-    <row r="135" spans="3:8">
-      <c r="C135" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E135" s="5"/>
-      <c r="F135" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G135" s="5"/>
-      <c r="H135" s="4"/>
-    </row>
-    <row r="136" spans="3:8">
-      <c r="C136" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="E136" s="9"/>
-      <c r="F136" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="F136" s="10"/>
       <c r="G136" s="10"/>
       <c r="H136" s="8"/>
     </row>
-    <row r="137" spans="3:8">
-      <c r="C137" s="7" t="s">
+    <row r="137" spans="2:8">
+      <c r="C137" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G137" s="5"/>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="C138" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="8"/>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="C139" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="5"/>
+      <c r="F139" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G139" s="5"/>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="C140" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G140" s="10"/>
+      <c r="H140" s="8"/>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="C141" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D141" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E137" s="9"/>
-      <c r="F137" s="10" t="s">
+      <c r="E141" s="9"/>
+      <c r="F141" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G137" s="10"/>
-      <c r="H137" s="8"/>
-    </row>
-    <row r="138" spans="3:8">
-      <c r="C138" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="4"/>
-    </row>
-    <row r="139" spans="3:8">
-      <c r="C139" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" s="9"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="8"/>
-    </row>
-    <row r="140" spans="3:8">
-      <c r="C140" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="4"/>
-    </row>
-    <row r="141" spans="3:8">
-      <c r="C141" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E141" s="9"/>
-      <c r="F141" s="10"/>
       <c r="G141" s="10"/>
       <c r="H141" s="8"/>
     </row>
-    <row r="142" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C142" s="13"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="12"/>
-    </row>
-    <row r="145" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B145" s="21">
+    <row r="142" spans="2:8">
+      <c r="C142" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="C143" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="9"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="C144" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="C145" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E145" s="9"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="8"/>
+    </row>
+    <row r="146" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C146" s="13"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="12"/>
+    </row>
+    <row r="149" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B149" s="21">
         <v>11</v>
       </c>
-      <c r="C145" s="22" t="s">
+      <c r="C149" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C146" s="1" t="s">
+    <row r="150" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C150" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="G150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H146" s="1" t="s">
+      <c r="H150" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="2:8">
-      <c r="C147" s="17" t="s">
+    <row r="151" spans="2:8">
+      <c r="C151" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D147" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E147" s="18"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="18" t="s">
+      <c r="D151" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" s="18"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H147" s="16" t="s">
+      <c r="H151" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="148" spans="2:8">
-      <c r="C148" s="3" t="s">
+    <row r="152" spans="2:8">
+      <c r="C152" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D152" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E148" s="5"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="4"/>
-    </row>
-    <row r="149" spans="2:8">
-      <c r="C149" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E149" s="9"/>
-      <c r="F149" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G149" s="10"/>
-      <c r="H149" s="8"/>
-    </row>
-    <row r="150" spans="2:8">
-      <c r="C150" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="4"/>
-    </row>
-    <row r="151" spans="2:8">
-      <c r="C151" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E151" s="9"/>
-      <c r="F151" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G151" s="10"/>
-      <c r="H151" s="8"/>
-    </row>
-    <row r="152" spans="2:8">
-      <c r="C152" s="3"/>
-      <c r="D152" s="4"/>
       <c r="E152" s="5"/>
       <c r="F152" s="6"/>
       <c r="G152" s="5"/>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C153" s="13"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="12"/>
-    </row>
-    <row r="156" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B156" s="21">
+    <row r="153" spans="2:8">
+      <c r="C153" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153" s="9"/>
+      <c r="F153" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G153" s="10"/>
+      <c r="H153" s="8"/>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="C154" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154" s="5"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="4"/>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="C155" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E155" s="9"/>
+      <c r="F155" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G155" s="10"/>
+      <c r="H155" s="8"/>
+    </row>
+    <row r="156" spans="2:8">
+      <c r="C156" s="3"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="4"/>
+    </row>
+    <row r="157" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C157" s="13"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="12"/>
+    </row>
+    <row r="160" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B160" s="21">
         <v>12</v>
       </c>
-      <c r="C156" s="22" t="s">
+      <c r="C160" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C157" s="1" t="s">
+    <row r="161" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C161" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F157" s="2" t="s">
+      <c r="F161" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="G161" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="H161" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="2:8">
-      <c r="C158" s="17" t="s">
+    <row r="162" spans="3:8">
+      <c r="C162" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D158" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E158" s="18"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="18" t="s">
+      <c r="D162" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" s="18"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H158" s="16" t="s">
+      <c r="H162" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="159" spans="2:8">
-      <c r="C159" s="3" t="s">
+    <row r="163" spans="3:8">
+      <c r="C163" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D163" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E159" s="5"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="4"/>
-    </row>
-    <row r="160" spans="2:8" ht="30">
-      <c r="C160" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E160" s="9"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8">
-      <c r="C161" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161" s="5"/>
-      <c r="F161" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G161" s="5"/>
-      <c r="H161" s="4"/>
-    </row>
-    <row r="162" spans="2:8">
-      <c r="C162" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162" s="9"/>
-      <c r="F162" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G162" s="10"/>
-      <c r="H162" s="8"/>
-    </row>
-    <row r="163" spans="2:8">
-      <c r="C163" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="6"/>
       <c r="G163" s="5"/>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="2:8">
+    <row r="164" spans="3:8" ht="30">
       <c r="C164" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E164" s="9"/>
-      <c r="F164" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="F164" s="10"/>
       <c r="G164" s="10"/>
-      <c r="H164" s="8"/>
-    </row>
-    <row r="165" spans="2:8">
+      <c r="H164" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8">
       <c r="C165" s="3" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="6" t="s">
@@ -2816,361 +2834,415 @@
       <c r="G165" s="5"/>
       <c r="H165" s="4"/>
     </row>
-    <row r="166" spans="2:8">
+    <row r="166" spans="3:8">
       <c r="C166" s="7" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="10" t="s">
         <v>127</v>
       </c>
       <c r="G166" s="10"/>
-      <c r="H166" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8">
+      <c r="H166" s="8"/>
+    </row>
+    <row r="167" spans="3:8">
       <c r="C167" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D167" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E167" s="5"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="4"/>
+    </row>
+    <row r="168" spans="3:8">
+      <c r="C168" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D168" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="E167" s="5"/>
-      <c r="F167" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G167" s="5"/>
-      <c r="H167" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8">
-      <c r="C168" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="10" t="s">
         <v>127</v>
       </c>
       <c r="G168" s="10"/>
-      <c r="H168" s="8" t="s">
+      <c r="H168" s="8"/>
+    </row>
+    <row r="169" spans="3:8">
+      <c r="C169" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E169" s="5"/>
+      <c r="F169" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G169" s="5"/>
+      <c r="H169" s="4"/>
+    </row>
+    <row r="170" spans="3:8">
+      <c r="C170" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E170" s="9"/>
+      <c r="F170" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G170" s="10"/>
+      <c r="H170" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8">
+      <c r="C171" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E171" s="5"/>
+      <c r="F171" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G171" s="5"/>
+      <c r="H171" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8">
+      <c r="C172" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="9"/>
+      <c r="F172" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G172" s="10"/>
+      <c r="H172" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:8" ht="30">
-      <c r="C169" s="3" t="s">
+    <row r="173" spans="3:8" ht="30">
+      <c r="C173" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D169" s="4" t="s">
+      <c r="D173" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E169" s="5"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="4" t="s">
+      <c r="E173" s="5"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="170" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C170" s="13"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="12"/>
-    </row>
-    <row r="171" spans="2:8">
-      <c r="C171" s="16"/>
-      <c r="D171" s="24"/>
-      <c r="E171" s="25"/>
-      <c r="F171" s="25"/>
-      <c r="G171" s="25"/>
-      <c r="H171" s="24"/>
-    </row>
-    <row r="172" spans="2:8">
-      <c r="C172" s="16"/>
-      <c r="D172" s="24"/>
-      <c r="E172" s="25"/>
-      <c r="F172" s="25"/>
-      <c r="G172" s="25"/>
-      <c r="H172" s="24"/>
-    </row>
-    <row r="173" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B173" s="21">
+    <row r="174" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C174" s="13"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="14"/>
+      <c r="G174" s="14"/>
+      <c r="H174" s="12"/>
+    </row>
+    <row r="175" spans="3:8">
+      <c r="C175" s="16"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="25"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="25"/>
+      <c r="H175" s="24"/>
+    </row>
+    <row r="176" spans="3:8">
+      <c r="C176" s="16"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="25"/>
+      <c r="F176" s="25"/>
+      <c r="G176" s="25"/>
+      <c r="H176" s="24"/>
+    </row>
+    <row r="177" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B177" s="21">
         <v>11</v>
       </c>
-      <c r="C173" s="22" t="s">
+      <c r="C177" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="174" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C174" s="1" t="s">
+    <row r="178" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C178" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F174" s="2" t="s">
+      <c r="F178" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G174" s="2" t="s">
+      <c r="G178" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H174" s="1" t="s">
+      <c r="H178" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="2:8">
-      <c r="C175" s="17" t="s">
+    <row r="179" spans="2:8">
+      <c r="C179" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D175" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E175" s="18"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="18" t="s">
+      <c r="D179" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179" s="18"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H175" s="16" t="s">
+      <c r="H179" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="176" spans="2:8">
-      <c r="C176" s="3" t="s">
+    <row r="180" spans="2:8">
+      <c r="C180" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D180" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E176" s="5"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="4"/>
-    </row>
-    <row r="177" spans="2:8">
-      <c r="C177" s="7" t="s">
+      <c r="E180" s="5"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="4"/>
+    </row>
+    <row r="181" spans="2:8">
+      <c r="C181" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D181" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E177" s="9"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
-      <c r="H177" s="8"/>
-    </row>
-    <row r="178" spans="2:8">
-      <c r="C178" s="3"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="4"/>
-    </row>
-    <row r="179" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C179" s="13"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="12"/>
-    </row>
-    <row r="180" spans="2:8">
-      <c r="C180" s="16"/>
-      <c r="D180" s="24"/>
-      <c r="E180" s="25"/>
-      <c r="F180" s="25"/>
-      <c r="G180" s="25"/>
-      <c r="H180" s="24"/>
-    </row>
-    <row r="182" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B182" s="21">
+      <c r="E181" s="9"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="8"/>
+    </row>
+    <row r="182" spans="2:8">
+      <c r="C182" s="3"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="4"/>
+    </row>
+    <row r="183" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C183" s="13"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
+      <c r="H183" s="12"/>
+    </row>
+    <row r="184" spans="2:8">
+      <c r="C184" s="16"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="25"/>
+      <c r="F184" s="25"/>
+      <c r="G184" s="25"/>
+      <c r="H184" s="24"/>
+    </row>
+    <row r="186" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B186" s="21">
         <v>13</v>
       </c>
-      <c r="C182" s="22" t="s">
+      <c r="C186" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="183" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C183" s="1" t="s">
+    <row r="187" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C187" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="E187" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F183" s="2" t="s">
+      <c r="F187" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G183" s="2" t="s">
+      <c r="G187" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H183" s="1" t="s">
+      <c r="H187" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="2:8">
-      <c r="C184" s="17" t="s">
+    <row r="188" spans="2:8">
+      <c r="C188" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D184" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E184" s="18"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="18" t="s">
+      <c r="D188" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E188" s="18"/>
+      <c r="F188" s="19"/>
+      <c r="G188" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H184" s="16" t="s">
+      <c r="H188" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="185" spans="2:8">
-      <c r="C185" s="3" t="s">
+    <row r="189" spans="2:8">
+      <c r="C189" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="D189" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E185" s="5"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="4"/>
-    </row>
-    <row r="186" spans="2:8">
-      <c r="C186" s="7" t="s">
+      <c r="E189" s="5"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="4"/>
+    </row>
+    <row r="190" spans="2:8">
+      <c r="C190" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D186" s="8" t="s">
+      <c r="D190" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E186" s="9"/>
-      <c r="F186" s="10"/>
-      <c r="G186" s="10"/>
-      <c r="H186" s="8" t="s">
+      <c r="E190" s="9"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="187" spans="2:8">
-      <c r="C187" s="3"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="4"/>
-    </row>
-    <row r="188" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C188" s="13"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="12"/>
-    </row>
-    <row r="191" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B191" s="21">
+    <row r="191" spans="2:8">
+      <c r="C191" s="3"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="4"/>
+    </row>
+    <row r="192" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C192" s="13"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="14"/>
+      <c r="G192" s="14"/>
+      <c r="H192" s="12"/>
+    </row>
+    <row r="195" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B195" s="21">
         <v>14</v>
       </c>
-      <c r="C191" s="22" t="s">
+      <c r="C195" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="192" spans="2:8" ht="15.75" thickBot="1">
-      <c r="C192" s="1" t="s">
+    <row r="196" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C196" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="E196" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F192" s="2" t="s">
+      <c r="F196" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G192" s="2" t="s">
+      <c r="G196" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H192" s="1" t="s">
+      <c r="H196" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="3:8">
-      <c r="C193" s="17" t="s">
+    <row r="197" spans="2:8">
+      <c r="C197" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D193" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E193" s="18"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="18" t="s">
+      <c r="D197" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E197" s="18"/>
+      <c r="F197" s="19"/>
+      <c r="G197" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H193" s="16" t="s">
+      <c r="H197" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="194" spans="3:8">
-      <c r="C194" s="23" t="s">
+    <row r="198" spans="2:8">
+      <c r="C198" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D198" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E194" s="5"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="4" t="s">
+      <c r="E198" s="5"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="195" spans="3:8">
-      <c r="C195" s="7" t="s">
+    <row r="199" spans="2:8">
+      <c r="C199" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="D199" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E195" s="9"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
-      <c r="H195" s="8"/>
-    </row>
-    <row r="196" spans="3:8">
-      <c r="C196" s="3" t="s">
+      <c r="E199" s="9"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="8"/>
+    </row>
+    <row r="200" spans="2:8">
+      <c r="C200" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D196" s="4" t="s">
+      <c r="D200" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E196" s="5"/>
-      <c r="F196" s="6" t="s">
+      <c r="E200" s="5"/>
+      <c r="F200" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G196" s="5"/>
-      <c r="H196" s="4"/>
-    </row>
-    <row r="197" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C197" s="13"/>
-      <c r="D197" s="12"/>
-      <c r="E197" s="14"/>
-      <c r="F197" s="14"/>
-      <c r="G197" s="14"/>
-      <c r="H197" s="12"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="4"/>
+    </row>
+    <row r="201" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C201" s="13"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14"/>
+      <c r="H201" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/database design specification.xlsx
+++ b/design/database design specification.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="152">
   <si>
     <t>NAME</t>
   </si>
@@ -473,12 +473,49 @@
   <si>
     <t>publish date</t>
   </si>
+  <si>
+    <t>T_Country</t>
+  </si>
+  <si>
+    <t>T_Province</t>
+  </si>
+  <si>
+    <t>Primary Key. Country ID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country name </t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">country code . </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Unique </t>
+    </r>
+  </si>
+  <si>
+    <t>Primary Key. Province ID.</t>
+  </si>
+  <si>
+    <t>countryid + code = composite key</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +576,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -592,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -667,6 +712,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H201"/>
+  <dimension ref="B2:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3243,6 +3294,176 @@
       <c r="F201" s="14"/>
       <c r="G201" s="14"/>
       <c r="H201" s="12"/>
+    </row>
+    <row r="203" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B203" s="21">
+        <v>15</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C204" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8">
+      <c r="C205" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205" s="18"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H205" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8">
+      <c r="C206" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E206" s="5"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8">
+      <c r="C207" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E207" s="9"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C208" s="13"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="14"/>
+      <c r="H208" s="12"/>
+    </row>
+    <row r="210" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B210" s="21">
+        <v>16</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8">
+      <c r="C212" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212" s="18"/>
+      <c r="F212" s="19"/>
+      <c r="G212" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H212" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8">
+      <c r="C213" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" s="5"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8">
+      <c r="C214" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E214" s="9"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
+      <c r="H214" s="8"/>
+    </row>
+    <row r="215" spans="2:8">
+      <c r="C215" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E215" s="5"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="4"/>
+    </row>
+    <row r="216" spans="2:8" ht="15.75" thickBot="1">
+      <c r="C216" s="13"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="14"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="14"/>
+      <c r="H216" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
